--- a/Notebook/data_table.xlsx
+++ b/Notebook/data_table.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,6 +742,129 @@
         <v>15.80000019073486</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>12.98330020904541</v>
+      </c>
+      <c r="F3" t="n">
+        <v>77.58329772949219</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1733484615</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45632.70833333334</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1733483700</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>45632.69791666666</v>
+      </c>
+      <c r="L3" t="n">
+        <v>28.20000076293945</v>
+      </c>
+      <c r="M3" t="n">
+        <v>82.80000305175781</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.599999904632568</v>
+      </c>
+      <c r="P3" t="n">
+        <v>12.19999980926514</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>114</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>1014</v>
+      </c>
+      <c r="T3" t="n">
+        <v>29.94000053405762</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>62</v>
+      </c>
+      <c r="X3" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>29.10000038146973</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>84.30000305175781</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>26.89999961853027</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>80.40000152587891</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>27.60000038146973</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>81.59999847412109</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15.89999961853027</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>60.59999847412109</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1.100000023841858</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>15.80000019073486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Notebook/data_table.xlsx
+++ b/Notebook/data_table.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,6 +865,129 @@
         <v>15.80000019073486</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>12.98330020904541</v>
+      </c>
+      <c r="F4" t="n">
+        <v>77.58329772949219</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Asia/Kolkata</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1733485213</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>45632.71527777778</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1733484600</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>45632.70833333334</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28.10000038146973</v>
+      </c>
+      <c r="M4" t="n">
+        <v>82.59999847412109</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.800000190734863</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12.60000038146973</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>122</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>1014</v>
+      </c>
+      <c r="T4" t="n">
+        <v>29.94000053405762</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>62</v>
+      </c>
+      <c r="X4" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>85.90000152587891</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>24.89999961853027</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>76.69999694824219</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>26.10000038146973</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>79</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>16.79999923706055</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>62.20000076293945</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2000000029802322</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12.80000019073486</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>20.60000038146973</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
